--- a/deployment/Omaha_Cal_Info_CE09OSPM_00005.xlsx
+++ b/deployment/Omaha_Cal_Info_CE09OSPM_00005.xlsx
@@ -1,8 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\AST1799\Documents\OOI\OOI Douments\CI\asset-management\deployment\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="12705" yWindow="-15" windowWidth="12510" windowHeight="12405" tabRatio="377" activeTab="1"/>
   </bookViews>
@@ -30,12 +35,12 @@
     <definedName name="_FilterDatabase_1_1_1">Moorings!$B$1:$K$84</definedName>
     <definedName name="_FilterDatabase_2">Asset_Cal_Info!$A$1:$H$401</definedName>
   </definedNames>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="152511" concurrentCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173" uniqueCount="66">
   <si>
     <t>Ref Des</t>
   </si>
@@ -229,6 +234,30 @@
   </si>
   <si>
     <t>End Cap S/N</t>
+  </si>
+  <si>
+    <t>OL000288</t>
+  </si>
+  <si>
+    <t>A00285</t>
+  </si>
+  <si>
+    <t>OL000289</t>
+  </si>
+  <si>
+    <t>N00051</t>
+  </si>
+  <si>
+    <t>N00052</t>
+  </si>
+  <si>
+    <t>N00054</t>
+  </si>
+  <si>
+    <t>N00055</t>
+  </si>
+  <si>
+    <t>OL000242</t>
   </si>
 </sst>
 </file>
@@ -335,7 +364,7 @@
       <charset val="1"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -351,12 +380,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.79998168889431442"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF00B0F0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -415,7 +438,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -472,10 +495,6 @@
     </xf>
     <xf numFmtId="0" fontId="12" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -628,7 +647,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -663,7 +682,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -875,7 +894,7 @@
   <dimension ref="A1:N4"/>
   <sheetViews>
     <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="H6" sqref="H6"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -935,7 +954,9 @@
       </c>
     </row>
     <row r="2" spans="1:14">
-      <c r="A2" s="25"/>
+      <c r="A2" t="s">
+        <v>58</v>
+      </c>
       <c r="B2" s="8" t="s">
         <v>31</v>
       </c>
@@ -984,10 +1005,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I35"/>
+  <dimension ref="A1:P35"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+      <selection activeCell="F32" sqref="F32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -998,16 +1019,16 @@
     <col min="4" max="4" width="16.7109375" customWidth="1"/>
     <col min="5" max="5" width="15.28515625" customWidth="1"/>
     <col min="6" max="6" width="13.42578125" customWidth="1"/>
-    <col min="7" max="7" width="58.140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="45.140625" customWidth="1"/>
     <col min="8" max="8" width="30.85546875" style="16" customWidth="1"/>
     <col min="9" max="9" width="21.5703125" customWidth="1"/>
-    <col min="10" max="10" width="11.85546875"/>
-    <col min="11" max="11" width="14.42578125"/>
+    <col min="10" max="10" width="8.42578125" customWidth="1"/>
+    <col min="11" max="11" width="9.28515625" customWidth="1"/>
     <col min="12" max="12" width="13.42578125"/>
     <col min="13" max="1027" width="8.7109375"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="25.5">
+    <row r="1" spans="1:16" ht="25.5">
       <c r="A1" s="24" t="s">
         <v>0</v>
       </c>
@@ -1036,7 +1057,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:9" s="15" customFormat="1" ht="15.75">
+    <row r="2" spans="1:16" s="15" customFormat="1" ht="15.75">
       <c r="A2" s="13"/>
       <c r="B2" s="13"/>
       <c r="C2" s="13"/>
@@ -1047,19 +1068,23 @@
       <c r="H2" s="17"/>
       <c r="I2" s="13"/>
     </row>
-    <row r="3" spans="1:9">
+    <row r="3" spans="1:16">
       <c r="A3" t="s">
         <v>41</v>
       </c>
-      <c r="B3" s="25"/>
+      <c r="B3" t="s">
+        <v>58</v>
+      </c>
       <c r="C3" s="6" t="s">
         <v>49</v>
       </c>
       <c r="D3" s="6">
         <v>5</v>
       </c>
-      <c r="E3" s="25"/>
-      <c r="F3" s="32" t="s">
+      <c r="E3" t="s">
+        <v>59</v>
+      </c>
+      <c r="F3" s="30" t="s">
         <v>51</v>
       </c>
       <c r="G3" s="15" t="s">
@@ -1069,7 +1094,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="4" spans="1:9" s="15" customFormat="1" ht="15.75">
+    <row r="4" spans="1:16" s="15" customFormat="1" ht="15.75">
       <c r="A4" s="13"/>
       <c r="B4" s="13"/>
       <c r="C4" s="13"/>
@@ -1078,74 +1103,88 @@
       <c r="F4" s="13"/>
       <c r="G4" s="14"/>
       <c r="H4" s="17"/>
-    </row>
-    <row r="5" spans="1:9">
+      <c r="K4"/>
+      <c r="P4"/>
+    </row>
+    <row r="5" spans="1:16">
       <c r="A5" t="s">
         <v>33</v>
       </c>
-      <c r="B5" s="25"/>
+      <c r="B5" t="s">
+        <v>58</v>
+      </c>
       <c r="C5" s="6" t="s">
         <v>49</v>
       </c>
       <c r="D5" s="6">
         <v>5</v>
       </c>
-      <c r="E5" s="25"/>
-      <c r="F5" s="27" t="s">
+      <c r="E5" t="s">
+        <v>60</v>
+      </c>
+      <c r="F5" s="25" t="s">
         <v>52</v>
       </c>
-      <c r="G5" s="28" t="s">
+      <c r="G5" s="26" t="s">
         <v>14</v>
       </c>
       <c r="H5" s="21">
         <v>46.851277000000003</v>
       </c>
     </row>
-    <row r="6" spans="1:9">
+    <row r="6" spans="1:16">
       <c r="A6" t="s">
         <v>33</v>
       </c>
-      <c r="B6" s="25"/>
+      <c r="B6" t="s">
+        <v>58</v>
+      </c>
       <c r="C6" s="6" t="s">
         <v>49</v>
       </c>
       <c r="D6" s="6">
         <v>5</v>
       </c>
-      <c r="E6" s="25"/>
-      <c r="F6" s="27" t="s">
+      <c r="E6" t="s">
+        <v>60</v>
+      </c>
+      <c r="F6" s="25" t="s">
         <v>52</v>
       </c>
-      <c r="G6" s="28" t="s">
+      <c r="G6" s="26" t="s">
         <v>15</v>
       </c>
       <c r="H6" s="21">
         <v>-124.98210400000001</v>
       </c>
     </row>
-    <row r="7" spans="1:9">
+    <row r="7" spans="1:16">
       <c r="A7" s="5"/>
       <c r="B7" s="5"/>
       <c r="C7" s="6"/>
       <c r="D7" s="6"/>
       <c r="E7" s="6"/>
-      <c r="F7" s="27"/>
-      <c r="G7" s="28"/>
+      <c r="F7" s="25"/>
+      <c r="G7" s="26"/>
       <c r="H7" s="18"/>
     </row>
-    <row r="8" spans="1:9">
+    <row r="8" spans="1:16">
       <c r="A8" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="B8" s="25"/>
+      <c r="B8" t="s">
+        <v>58</v>
+      </c>
       <c r="C8" s="6" t="s">
         <v>49</v>
       </c>
       <c r="D8" s="6">
         <v>5</v>
       </c>
-      <c r="E8" s="25"/>
-      <c r="F8" s="33" t="s">
+      <c r="E8" t="s">
+        <v>61</v>
+      </c>
+      <c r="F8" s="31" t="s">
         <v>53</v>
       </c>
       <c r="G8" s="15" t="s">
@@ -1155,44 +1194,52 @@
         <v>46.851277000000003</v>
       </c>
     </row>
-    <row r="9" spans="1:9">
+    <row r="9" spans="1:16">
       <c r="A9" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="B9" s="25"/>
+      <c r="B9" t="s">
+        <v>58</v>
+      </c>
       <c r="C9" s="6" t="s">
         <v>49</v>
       </c>
       <c r="D9" s="6">
         <v>5</v>
       </c>
-      <c r="E9" s="25"/>
-      <c r="F9" s="33" t="s">
+      <c r="E9" t="s">
+        <v>61</v>
+      </c>
+      <c r="F9" s="31" t="s">
         <v>53</v>
       </c>
-      <c r="G9" s="28" t="s">
+      <c r="G9" s="26" t="s">
         <v>15</v>
       </c>
       <c r="H9" s="21">
         <v>-124.98210400000001</v>
       </c>
     </row>
-    <row r="10" spans="1:9">
+    <row r="10" spans="1:16">
       <c r="A10" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="B10" s="25"/>
+      <c r="B10" t="s">
+        <v>58</v>
+      </c>
       <c r="C10" s="6" t="s">
         <v>49</v>
       </c>
       <c r="D10" s="6">
         <v>5</v>
       </c>
-      <c r="E10" s="25"/>
-      <c r="F10" s="33" t="s">
+      <c r="E10" t="s">
+        <v>61</v>
+      </c>
+      <c r="F10" s="31" t="s">
         <v>53</v>
       </c>
-      <c r="G10" s="28" t="s">
+      <c r="G10" s="26" t="s">
         <v>17</v>
       </c>
       <c r="H10" s="22">
@@ -1202,142 +1249,166 @@
         <v>46</v>
       </c>
     </row>
-    <row r="11" spans="1:9">
+    <row r="11" spans="1:16">
       <c r="A11" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="B11" s="25"/>
+      <c r="B11" t="s">
+        <v>58</v>
+      </c>
       <c r="C11" s="6" t="s">
         <v>49</v>
       </c>
       <c r="D11" s="6">
         <v>5</v>
       </c>
-      <c r="E11" s="25"/>
-      <c r="F11" s="33" t="s">
+      <c r="E11" t="s">
+        <v>61</v>
+      </c>
+      <c r="F11" s="31" t="s">
         <v>53</v>
       </c>
-      <c r="G11" s="28" t="s">
+      <c r="G11" s="26" t="s">
         <v>16</v>
       </c>
       <c r="H11" s="22">
         <v>-852.0204</v>
       </c>
     </row>
-    <row r="12" spans="1:9">
+    <row r="12" spans="1:16">
       <c r="A12" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="B12" s="25"/>
+      <c r="B12" t="s">
+        <v>58</v>
+      </c>
       <c r="C12" s="6" t="s">
         <v>49</v>
       </c>
       <c r="D12" s="6">
         <v>5</v>
       </c>
-      <c r="E12" s="25"/>
-      <c r="F12" s="33" t="s">
+      <c r="E12" t="s">
+        <v>61</v>
+      </c>
+      <c r="F12" s="31" t="s">
         <v>53</v>
       </c>
-      <c r="G12" s="28" t="s">
+      <c r="G12" s="26" t="s">
         <v>18</v>
       </c>
       <c r="H12" s="21">
         <v>-3.8287870000000002E-3</v>
       </c>
     </row>
-    <row r="13" spans="1:9">
+    <row r="13" spans="1:16">
       <c r="A13" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="B13" s="25"/>
+      <c r="B13" t="s">
+        <v>58</v>
+      </c>
       <c r="C13" s="6" t="s">
         <v>49</v>
       </c>
       <c r="D13" s="6">
         <v>5</v>
       </c>
-      <c r="E13" s="25"/>
-      <c r="F13" s="33" t="s">
+      <c r="E13" t="s">
+        <v>61</v>
+      </c>
+      <c r="F13" s="31" t="s">
         <v>53</v>
       </c>
-      <c r="G13" s="28" t="s">
+      <c r="G13" s="26" t="s">
         <v>19</v>
       </c>
       <c r="H13" s="22">
         <v>1.8637490000000001E-4</v>
       </c>
     </row>
-    <row r="14" spans="1:9">
+    <row r="14" spans="1:16">
       <c r="A14" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="B14" s="25"/>
+      <c r="B14" t="s">
+        <v>58</v>
+      </c>
       <c r="C14" s="6" t="s">
         <v>49</v>
       </c>
       <c r="D14" s="6">
         <v>5</v>
       </c>
-      <c r="E14" s="25"/>
-      <c r="F14" s="33" t="s">
+      <c r="E14" t="s">
+        <v>61</v>
+      </c>
+      <c r="F14" s="31" t="s">
         <v>53</v>
       </c>
-      <c r="G14" s="28" t="s">
+      <c r="G14" s="26" t="s">
         <v>20</v>
       </c>
       <c r="H14" s="22">
         <v>-2.964531E-6</v>
       </c>
     </row>
-    <row r="15" spans="1:9">
+    <row r="15" spans="1:16">
       <c r="A15" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="B15" s="25"/>
+      <c r="B15" t="s">
+        <v>58</v>
+      </c>
       <c r="C15" s="6" t="s">
         <v>49</v>
       </c>
       <c r="D15" s="6">
         <v>5</v>
       </c>
-      <c r="E15" s="25"/>
-      <c r="F15" s="33" t="s">
+      <c r="E15" t="s">
+        <v>61</v>
+      </c>
+      <c r="F15" s="31" t="s">
         <v>53</v>
       </c>
-      <c r="G15" s="28" t="s">
+      <c r="G15" s="26" t="s">
         <v>21</v>
       </c>
       <c r="H15" s="22">
         <v>3.5999999999999997E-2</v>
       </c>
     </row>
-    <row r="16" spans="1:9">
+    <row r="16" spans="1:16">
       <c r="A16" s="5"/>
       <c r="B16" s="5"/>
       <c r="C16" s="6"/>
       <c r="D16" s="6"/>
       <c r="E16" s="6"/>
-      <c r="F16" s="29"/>
-      <c r="G16" s="28"/>
+      <c r="F16" s="27"/>
+      <c r="G16" s="26"/>
       <c r="H16" s="22"/>
     </row>
     <row r="17" spans="1:9">
       <c r="A17" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="B17" s="25"/>
+      <c r="B17" t="s">
+        <v>58</v>
+      </c>
       <c r="C17" s="6" t="s">
         <v>49</v>
       </c>
       <c r="D17" s="6">
         <v>5</v>
       </c>
-      <c r="E17" s="25"/>
-      <c r="F17" s="27">
+      <c r="E17" t="s">
+        <v>62</v>
+      </c>
+      <c r="F17" s="25">
         <v>1030</v>
       </c>
-      <c r="G17" s="30" t="s">
+      <c r="G17" s="28" t="s">
         <v>37</v>
       </c>
       <c r="H17" s="20">
@@ -1351,18 +1422,22 @@
       <c r="A18" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="B18" s="25"/>
+      <c r="B18" t="s">
+        <v>58</v>
+      </c>
       <c r="C18" s="6" t="s">
         <v>49</v>
       </c>
       <c r="D18" s="6">
         <v>5</v>
       </c>
-      <c r="E18" s="25"/>
-      <c r="F18" s="27">
+      <c r="E18" t="s">
+        <v>62</v>
+      </c>
+      <c r="F18" s="25">
         <v>1030</v>
       </c>
-      <c r="G18" s="28" t="s">
+      <c r="G18" s="26" t="s">
         <v>40</v>
       </c>
       <c r="H18" s="20">
@@ -1373,18 +1448,22 @@
       <c r="A19" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="B19" s="25"/>
+      <c r="B19" t="s">
+        <v>58</v>
+      </c>
       <c r="C19" s="6" t="s">
         <v>49</v>
       </c>
       <c r="D19" s="6">
         <v>5</v>
       </c>
-      <c r="E19" s="25"/>
-      <c r="F19" s="27">
+      <c r="E19" t="s">
+        <v>62</v>
+      </c>
+      <c r="F19" s="25">
         <v>1030</v>
       </c>
-      <c r="G19" s="30" t="s">
+      <c r="G19" s="28" t="s">
         <v>39</v>
       </c>
       <c r="H19" s="20">
@@ -1395,18 +1474,22 @@
       <c r="A20" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="B20" s="25"/>
+      <c r="B20" t="s">
+        <v>58</v>
+      </c>
       <c r="C20" s="6" t="s">
         <v>49</v>
       </c>
       <c r="D20" s="6">
         <v>5</v>
       </c>
-      <c r="E20" s="25"/>
-      <c r="F20" s="27">
+      <c r="E20" t="s">
+        <v>62</v>
+      </c>
+      <c r="F20" s="25">
         <v>1030</v>
       </c>
-      <c r="G20" s="30" t="s">
+      <c r="G20" s="28" t="s">
         <v>38</v>
       </c>
       <c r="H20" s="20">
@@ -1417,18 +1500,22 @@
       <c r="A21" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="B21" s="25"/>
+      <c r="B21" t="s">
+        <v>58</v>
+      </c>
       <c r="C21" s="6" t="s">
         <v>49</v>
       </c>
       <c r="D21" s="6">
         <v>5</v>
       </c>
-      <c r="E21" s="25"/>
-      <c r="F21" s="27">
+      <c r="E21" t="s">
+        <v>62</v>
+      </c>
+      <c r="F21" s="25">
         <v>1030</v>
       </c>
-      <c r="G21" s="28" t="s">
+      <c r="G21" s="26" t="s">
         <v>24</v>
       </c>
       <c r="H21" s="19">
@@ -1439,18 +1526,22 @@
       <c r="A22" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="B22" s="25"/>
+      <c r="B22" t="s">
+        <v>58</v>
+      </c>
       <c r="C22" s="6" t="s">
         <v>49</v>
       </c>
       <c r="D22" s="6">
         <v>5</v>
       </c>
-      <c r="E22" s="25"/>
-      <c r="F22" s="27">
+      <c r="E22" t="s">
+        <v>62</v>
+      </c>
+      <c r="F22" s="25">
         <v>1030</v>
       </c>
-      <c r="G22" s="28" t="s">
+      <c r="G22" s="26" t="s">
         <v>27</v>
       </c>
       <c r="H22" s="19">
@@ -1461,18 +1552,22 @@
       <c r="A23" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="B23" s="25"/>
+      <c r="B23" t="s">
+        <v>58</v>
+      </c>
       <c r="C23" s="6" t="s">
         <v>49</v>
       </c>
       <c r="D23" s="6">
         <v>5</v>
       </c>
-      <c r="E23" s="25"/>
-      <c r="F23" s="27">
+      <c r="E23" t="s">
+        <v>62</v>
+      </c>
+      <c r="F23" s="25">
         <v>1030</v>
       </c>
-      <c r="G23" s="28" t="s">
+      <c r="G23" s="26" t="s">
         <v>22</v>
       </c>
       <c r="H23" s="19">
@@ -1483,18 +1578,22 @@
       <c r="A24" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="B24" s="25"/>
+      <c r="B24" t="s">
+        <v>58</v>
+      </c>
       <c r="C24" s="6" t="s">
         <v>49</v>
       </c>
       <c r="D24" s="6">
         <v>5</v>
       </c>
-      <c r="E24" s="25"/>
-      <c r="F24" s="27">
+      <c r="E24" t="s">
+        <v>62</v>
+      </c>
+      <c r="F24" s="25">
         <v>1030</v>
       </c>
-      <c r="G24" s="28" t="s">
+      <c r="G24" s="26" t="s">
         <v>25</v>
       </c>
       <c r="H24" s="19">
@@ -1505,18 +1604,22 @@
       <c r="A25" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="B25" s="25"/>
+      <c r="B25" t="s">
+        <v>58</v>
+      </c>
       <c r="C25" s="6" t="s">
         <v>49</v>
       </c>
       <c r="D25" s="6">
         <v>5</v>
       </c>
-      <c r="E25" s="25"/>
-      <c r="F25" s="27">
+      <c r="E25" t="s">
+        <v>62</v>
+      </c>
+      <c r="F25" s="25">
         <v>1030</v>
       </c>
-      <c r="G25" s="28" t="s">
+      <c r="G25" s="26" t="s">
         <v>23</v>
       </c>
       <c r="H25" s="19">
@@ -1527,18 +1630,22 @@
       <c r="A26" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="B26" s="25"/>
+      <c r="B26" t="s">
+        <v>58</v>
+      </c>
       <c r="C26" s="6" t="s">
         <v>49</v>
       </c>
       <c r="D26" s="6">
         <v>5</v>
       </c>
-      <c r="E26" s="25"/>
-      <c r="F26" s="27">
+      <c r="E26" t="s">
+        <v>62</v>
+      </c>
+      <c r="F26" s="25">
         <v>1030</v>
       </c>
-      <c r="G26" s="28" t="s">
+      <c r="G26" s="26" t="s">
         <v>26</v>
       </c>
       <c r="H26" s="18">
@@ -1551,26 +1658,30 @@
       <c r="C27" s="6"/>
       <c r="D27" s="6"/>
       <c r="E27" s="6"/>
-      <c r="F27" s="27"/>
-      <c r="G27" s="28"/>
+      <c r="F27" s="25"/>
+      <c r="G27" s="26"/>
       <c r="H27" s="20"/>
     </row>
     <row r="28" spans="1:9">
       <c r="A28" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="B28" s="25"/>
+      <c r="B28" t="s">
+        <v>58</v>
+      </c>
       <c r="C28" s="6" t="s">
         <v>49</v>
       </c>
       <c r="D28" s="6">
         <v>5</v>
       </c>
-      <c r="E28" s="25"/>
-      <c r="F28" s="27">
+      <c r="E28" t="s">
+        <v>63</v>
+      </c>
+      <c r="F28" s="25">
         <v>20438</v>
       </c>
-      <c r="G28" s="28" t="s">
+      <c r="G28" s="26" t="s">
         <v>28</v>
       </c>
       <c r="H28" s="18">
@@ -1584,21 +1695,25 @@
       <c r="A29" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="B29" s="25"/>
+      <c r="B29" t="s">
+        <v>58</v>
+      </c>
       <c r="C29" s="6" t="s">
         <v>49</v>
       </c>
       <c r="D29" s="6">
         <v>5</v>
       </c>
-      <c r="E29" s="25"/>
-      <c r="F29" s="27">
+      <c r="E29" t="s">
+        <v>63</v>
+      </c>
+      <c r="F29" s="25">
         <v>20348</v>
       </c>
-      <c r="G29" s="28" t="s">
+      <c r="G29" s="26" t="s">
         <v>29</v>
       </c>
-      <c r="H29" s="35">
+      <c r="H29" s="33">
         <v>1.0300000000000001E-17</v>
       </c>
       <c r="I29" t="s">
@@ -1610,7 +1725,7 @@
       <c r="B30" s="5"/>
       <c r="D30" s="6"/>
       <c r="E30" s="6"/>
-      <c r="F30" s="34"/>
+      <c r="F30" s="32"/>
       <c r="G30" s="15"/>
       <c r="H30" s="21"/>
     </row>
@@ -1618,18 +1733,22 @@
       <c r="A31" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="B31" s="25"/>
+      <c r="B31" t="s">
+        <v>58</v>
+      </c>
       <c r="C31" s="6" t="s">
         <v>49</v>
       </c>
       <c r="D31" s="6">
         <v>5</v>
       </c>
-      <c r="E31" s="25"/>
-      <c r="F31" s="29">
+      <c r="E31" t="s">
+        <v>64</v>
+      </c>
+      <c r="F31" s="27">
         <v>100014</v>
       </c>
-      <c r="G31" s="28" t="s">
+      <c r="G31" s="26" t="s">
         <v>14</v>
       </c>
       <c r="H31" s="21">
@@ -1640,18 +1759,22 @@
       <c r="A32" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="B32" s="25"/>
+      <c r="B32" t="s">
+        <v>58</v>
+      </c>
       <c r="C32" s="6" t="s">
         <v>49</v>
       </c>
       <c r="D32" s="6">
         <v>5</v>
       </c>
-      <c r="E32" s="25"/>
-      <c r="F32" s="29">
+      <c r="E32" t="s">
+        <v>64</v>
+      </c>
+      <c r="F32" s="27">
         <v>100014</v>
       </c>
-      <c r="G32" s="28" t="s">
+      <c r="G32" s="26" t="s">
         <v>15</v>
       </c>
       <c r="H32" s="21">
@@ -1664,30 +1787,34 @@
       <c r="C33" s="6"/>
       <c r="D33" s="6"/>
       <c r="E33" s="6"/>
-      <c r="F33" s="29"/>
-      <c r="G33" s="28"/>
+      <c r="F33" s="27"/>
+      <c r="G33" s="26"/>
       <c r="H33" s="18"/>
     </row>
     <row r="34" spans="1:9">
       <c r="A34" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="B34" s="25"/>
+      <c r="B34" t="s">
+        <v>58</v>
+      </c>
       <c r="C34" s="6" t="s">
         <v>49</v>
       </c>
       <c r="D34" s="6">
         <v>5</v>
       </c>
-      <c r="E34" s="26"/>
-      <c r="F34" s="31" t="s">
+      <c r="E34" t="s">
+        <v>65</v>
+      </c>
+      <c r="F34" s="29" t="s">
         <v>54</v>
       </c>
       <c r="G34" s="15" t="s">
         <v>55</v>
       </c>
       <c r="H34" s="21"/>
-      <c r="I34" s="36" t="s">
+      <c r="I34" s="34" t="s">
         <v>57</v>
       </c>
     </row>

--- a/deployment/Omaha_Cal_Info_CE09OSPM_00005.xlsx
+++ b/deployment/Omaha_Cal_Info_CE09OSPM_00005.xlsx
@@ -59,7 +59,7 @@
     <t>CE09OSPM-00005</t>
   </si>
   <si>
-    <t>TN342</t>
+    <t>TN-342</t>
   </si>
   <si>
     <t>Mooring Serial Number</t>
@@ -312,7 +312,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor indexed="11"/>
+        <fgColor indexed="10"/>
         <bgColor auto="1"/>
       </patternFill>
     </fill>
@@ -394,41 +394,41 @@
         <color indexed="8"/>
       </left>
       <right style="thin">
-        <color indexed="10"/>
+        <color indexed="11"/>
       </right>
       <top style="thin">
-        <color indexed="10"/>
+        <color indexed="11"/>
       </top>
       <bottom style="thin">
-        <color indexed="10"/>
+        <color indexed="11"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="10"/>
+        <color indexed="11"/>
       </left>
       <right style="thin">
-        <color indexed="10"/>
+        <color indexed="11"/>
       </right>
       <top style="thin">
-        <color indexed="10"/>
+        <color indexed="11"/>
       </top>
       <bottom style="thin">
-        <color indexed="10"/>
+        <color indexed="11"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="10"/>
+        <color indexed="11"/>
       </left>
       <right style="thin">
         <color indexed="8"/>
       </right>
       <top/>
       <bottom style="thin">
-        <color indexed="10"/>
+        <color indexed="11"/>
       </bottom>
       <diagonal/>
     </border>
@@ -452,28 +452,28 @@
         <color indexed="8"/>
       </left>
       <right style="thin">
-        <color indexed="10"/>
+        <color indexed="11"/>
       </right>
       <top style="thin">
-        <color indexed="10"/>
+        <color indexed="11"/>
       </top>
       <bottom style="thin">
-        <color indexed="10"/>
+        <color indexed="11"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="10"/>
+        <color indexed="11"/>
       </left>
       <right style="thin">
-        <color indexed="10"/>
+        <color indexed="11"/>
       </right>
       <top style="thin">
         <color indexed="8"/>
       </top>
       <bottom style="thin">
-        <color indexed="10"/>
+        <color indexed="11"/>
       </bottom>
       <diagonal/>
     </border>
@@ -492,14 +492,14 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="10"/>
+        <color indexed="11"/>
       </left>
       <right style="thin">
-        <color indexed="10"/>
+        <color indexed="11"/>
       </right>
       <top/>
       <bottom style="thin">
-        <color indexed="10"/>
+        <color indexed="11"/>
       </bottom>
       <diagonal/>
     </border>
@@ -509,7 +509,7 @@
       <alignment vertical="bottom"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="41">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
@@ -528,10 +528,10 @@
     <xf numFmtId="49" fontId="4" fillId="2" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" borderId="5" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="0" borderId="6" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="3" borderId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
@@ -561,7 +561,7 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" borderId="10" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
@@ -579,7 +579,7 @@
     <xf numFmtId="49" fontId="6" fillId="2" borderId="11" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" borderId="9" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="12" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
@@ -603,9 +603,6 @@
     <xf numFmtId="49" fontId="0" fillId="3" borderId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -614,9 +611,6 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
     </xf>
     <xf numFmtId="49" fontId="8" fillId="3" borderId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
@@ -651,8 +645,8 @@
       <rgbColor rgb="ff00ffff"/>
       <rgbColor rgb="ff000000"/>
       <rgbColor rgb="ffccecff"/>
+      <rgbColor rgb="ffffffff"/>
       <rgbColor rgb="ffaaaaaa"/>
-      <rgbColor rgb="ffffffff"/>
       <rgbColor rgb="fffde9d9"/>
       <rgbColor rgb="ffff0000"/>
     </indexedColors>
@@ -805,9 +799,9 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="38100" dist="20000" dir="5400000">
+            <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="38100" dist="23000" dir="5400000">
               <a:srgbClr val="000000">
-                <a:alpha val="38000"/>
+                <a:alpha val="35000"/>
               </a:srgbClr>
             </a:outerShdw>
           </a:effectLst>
@@ -887,7 +881,7 @@
         </a:effectLst>
         <a:sp3d/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45719" tIns="45719" rIns="45719" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="ctr" upright="0">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45718" tIns="45718" rIns="45718" bIns="45718" numCol="1" spcCol="38100" rtlCol="0" anchor="ctr" upright="0">
         <a:spAutoFit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -915,10 +909,10 @@
             </a:solidFill>
             <a:effectLst/>
             <a:uFillTx/>
-            <a:latin typeface="Calibri"/>
-            <a:ea typeface="Calibri"/>
-            <a:cs typeface="Calibri"/>
-            <a:sym typeface="Calibri"/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+            <a:sym typeface="Helvetica"/>
           </a:defRPr>
         </a:defPPr>
         <a:lvl1pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
@@ -1174,9 +1168,9 @@
           <a:round/>
         </a:ln>
         <a:effectLst>
-          <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="38100" dist="20000" dir="5400000">
+          <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="38100" dist="23000" dir="5400000">
             <a:srgbClr val="000000">
-              <a:alpha val="38000"/>
+              <a:alpha val="35000"/>
             </a:srgbClr>
           </a:outerShdw>
         </a:effectLst>
@@ -1464,7 +1458,7 @@
         <a:effectLst/>
         <a:sp3d/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45719" tIns="45719" rIns="45719" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="t" upright="0">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45718" tIns="45718" rIns="45718" bIns="45718" numCol="1" spcCol="38100" rtlCol="0" anchor="t" upright="0">
         <a:spAutoFit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -1492,10 +1486,10 @@
             </a:solidFill>
             <a:effectLst/>
             <a:uFillTx/>
-            <a:latin typeface="Calibri"/>
-            <a:ea typeface="Calibri"/>
-            <a:cs typeface="Calibri"/>
-            <a:sym typeface="Calibri"/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+            <a:sym typeface="Helvetica"/>
           </a:defRPr>
         </a:defPPr>
         <a:lvl1pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
@@ -2070,7 +2064,7 @@
       <c r="G3" t="s" s="27">
         <v>24</v>
       </c>
-      <c r="H3" s="31"/>
+      <c r="H3" s="7"/>
       <c r="I3" t="s" s="27">
         <v>25</v>
       </c>
@@ -2078,17 +2072,17 @@
       <c r="K3" s="7"/>
     </row>
     <row r="4" ht="15.75" customHeight="1">
-      <c r="A4" s="32"/>
-      <c r="B4" s="32"/>
-      <c r="C4" s="32"/>
+      <c r="A4" s="31"/>
+      <c r="B4" s="31"/>
+      <c r="C4" s="31"/>
       <c r="D4" s="29"/>
       <c r="E4" s="29"/>
-      <c r="F4" s="32"/>
-      <c r="G4" s="33"/>
-      <c r="H4" s="34"/>
+      <c r="F4" s="31"/>
+      <c r="G4" s="32"/>
+      <c r="H4" s="33"/>
       <c r="I4" s="7"/>
       <c r="J4" s="7"/>
-      <c r="K4" s="35"/>
+      <c r="K4" s="7"/>
     </row>
     <row r="5" ht="16" customHeight="1">
       <c r="A5" t="s" s="27">
@@ -2109,10 +2103,10 @@
       <c r="F5" t="s" s="28">
         <v>28</v>
       </c>
-      <c r="G5" t="s" s="36">
+      <c r="G5" t="s" s="34">
         <v>29</v>
       </c>
-      <c r="H5" s="35">
+      <c r="H5" s="7">
         <v>46.851277</v>
       </c>
       <c r="I5" s="7"/>
@@ -2138,10 +2132,10 @@
       <c r="F6" t="s" s="28">
         <v>28</v>
       </c>
-      <c r="G6" t="s" s="36">
+      <c r="G6" t="s" s="34">
         <v>30</v>
       </c>
-      <c r="H6" s="35">
+      <c r="H6" s="7">
         <v>-124.982104</v>
       </c>
       <c r="I6" s="7"/>
@@ -2149,20 +2143,20 @@
       <c r="K6" s="7"/>
     </row>
     <row r="7" ht="16" customHeight="1">
-      <c r="A7" s="37"/>
-      <c r="B7" s="37"/>
+      <c r="A7" s="35"/>
+      <c r="B7" s="35"/>
       <c r="C7" s="29"/>
       <c r="D7" s="29"/>
       <c r="E7" s="29"/>
       <c r="F7" s="29"/>
-      <c r="G7" s="37"/>
-      <c r="H7" s="37"/>
+      <c r="G7" s="35"/>
+      <c r="H7" s="35"/>
       <c r="I7" s="7"/>
       <c r="J7" s="7"/>
       <c r="K7" s="7"/>
     </row>
     <row r="8" ht="16" customHeight="1">
-      <c r="A8" t="s" s="36">
+      <c r="A8" t="s" s="34">
         <v>31</v>
       </c>
       <c r="B8" t="s" s="27">
@@ -2183,7 +2177,7 @@
       <c r="G8" t="s" s="27">
         <v>29</v>
       </c>
-      <c r="H8" s="35">
+      <c r="H8" s="7">
         <v>46.851277</v>
       </c>
       <c r="I8" s="7"/>
@@ -2191,7 +2185,7 @@
       <c r="K8" s="7"/>
     </row>
     <row r="9" ht="16" customHeight="1">
-      <c r="A9" t="s" s="36">
+      <c r="A9" t="s" s="34">
         <v>31</v>
       </c>
       <c r="B9" t="s" s="27">
@@ -2209,10 +2203,10 @@
       <c r="F9" t="s" s="30">
         <v>33</v>
       </c>
-      <c r="G9" t="s" s="36">
+      <c r="G9" t="s" s="34">
         <v>30</v>
       </c>
-      <c r="H9" s="35">
+      <c r="H9" s="7">
         <v>-124.982104</v>
       </c>
       <c r="I9" s="7"/>
@@ -2220,7 +2214,7 @@
       <c r="K9" s="7"/>
     </row>
     <row r="10" ht="16" customHeight="1">
-      <c r="A10" t="s" s="36">
+      <c r="A10" t="s" s="34">
         <v>31</v>
       </c>
       <c r="B10" t="s" s="27">
@@ -2238,10 +2232,10 @@
       <c r="F10" t="s" s="30">
         <v>33</v>
       </c>
-      <c r="G10" t="s" s="36">
+      <c r="G10" t="s" s="34">
         <v>34</v>
       </c>
-      <c r="H10" s="38">
+      <c r="H10" s="36">
         <v>0.00027191</v>
       </c>
       <c r="I10" t="s" s="27">
@@ -2251,7 +2245,7 @@
       <c r="K10" s="7"/>
     </row>
     <row r="11" ht="16" customHeight="1">
-      <c r="A11" t="s" s="36">
+      <c r="A11" t="s" s="34">
         <v>31</v>
       </c>
       <c r="B11" t="s" s="27">
@@ -2269,10 +2263,10 @@
       <c r="F11" t="s" s="30">
         <v>33</v>
       </c>
-      <c r="G11" t="s" s="36">
+      <c r="G11" t="s" s="34">
         <v>36</v>
       </c>
-      <c r="H11" s="38">
+      <c r="H11" s="36">
         <v>-852.0204</v>
       </c>
       <c r="I11" s="7"/>
@@ -2280,7 +2274,7 @@
       <c r="K11" s="7"/>
     </row>
     <row r="12" ht="16" customHeight="1">
-      <c r="A12" t="s" s="36">
+      <c r="A12" t="s" s="34">
         <v>31</v>
       </c>
       <c r="B12" t="s" s="27">
@@ -2298,10 +2292,10 @@
       <c r="F12" t="s" s="30">
         <v>33</v>
       </c>
-      <c r="G12" t="s" s="36">
+      <c r="G12" t="s" s="34">
         <v>37</v>
       </c>
-      <c r="H12" s="35">
+      <c r="H12" s="7">
         <v>-0.003828787</v>
       </c>
       <c r="I12" s="7"/>
@@ -2309,7 +2303,7 @@
       <c r="K12" s="7"/>
     </row>
     <row r="13" ht="16" customHeight="1">
-      <c r="A13" t="s" s="36">
+      <c r="A13" t="s" s="34">
         <v>31</v>
       </c>
       <c r="B13" t="s" s="27">
@@ -2327,10 +2321,10 @@
       <c r="F13" t="s" s="30">
         <v>33</v>
       </c>
-      <c r="G13" t="s" s="36">
+      <c r="G13" t="s" s="34">
         <v>38</v>
       </c>
-      <c r="H13" s="38">
+      <c r="H13" s="36">
         <v>0.0001863749</v>
       </c>
       <c r="I13" s="7"/>
@@ -2338,7 +2332,7 @@
       <c r="K13" s="7"/>
     </row>
     <row r="14" ht="16" customHeight="1">
-      <c r="A14" t="s" s="36">
+      <c r="A14" t="s" s="34">
         <v>31</v>
       </c>
       <c r="B14" t="s" s="27">
@@ -2356,10 +2350,10 @@
       <c r="F14" t="s" s="30">
         <v>33</v>
       </c>
-      <c r="G14" t="s" s="36">
+      <c r="G14" t="s" s="34">
         <v>39</v>
       </c>
-      <c r="H14" s="38">
+      <c r="H14" s="36">
         <v>-2.964531e-06</v>
       </c>
       <c r="I14" s="7"/>
@@ -2367,7 +2361,7 @@
       <c r="K14" s="7"/>
     </row>
     <row r="15" ht="16" customHeight="1">
-      <c r="A15" t="s" s="36">
+      <c r="A15" t="s" s="34">
         <v>31</v>
       </c>
       <c r="B15" t="s" s="27">
@@ -2385,10 +2379,10 @@
       <c r="F15" t="s" s="30">
         <v>33</v>
       </c>
-      <c r="G15" t="s" s="36">
+      <c r="G15" t="s" s="34">
         <v>40</v>
       </c>
-      <c r="H15" s="38">
+      <c r="H15" s="36">
         <v>0.036</v>
       </c>
       <c r="I15" s="7"/>
@@ -2396,20 +2390,20 @@
       <c r="K15" s="7"/>
     </row>
     <row r="16" ht="16" customHeight="1">
-      <c r="A16" s="37"/>
-      <c r="B16" s="37"/>
+      <c r="A16" s="35"/>
+      <c r="B16" s="35"/>
       <c r="C16" s="29"/>
       <c r="D16" s="29"/>
       <c r="E16" s="29"/>
-      <c r="F16" s="39"/>
-      <c r="G16" s="37"/>
-      <c r="H16" s="38"/>
+      <c r="F16" s="37"/>
+      <c r="G16" s="35"/>
+      <c r="H16" s="36"/>
       <c r="I16" s="7"/>
       <c r="J16" s="7"/>
       <c r="K16" s="7"/>
     </row>
     <row r="17" ht="16" customHeight="1">
-      <c r="A17" t="s" s="36">
+      <c r="A17" t="s" s="34">
         <v>41</v>
       </c>
       <c r="B17" t="s" s="27">
@@ -2430,7 +2424,7 @@
       <c r="G17" t="s" s="27">
         <v>43</v>
       </c>
-      <c r="H17" s="35">
+      <c r="H17" s="7">
         <v>1.076</v>
       </c>
       <c r="I17" t="s" s="27">
@@ -2440,7 +2434,7 @@
       <c r="K17" s="7"/>
     </row>
     <row r="18" ht="16" customHeight="1">
-      <c r="A18" t="s" s="36">
+      <c r="A18" t="s" s="34">
         <v>41</v>
       </c>
       <c r="B18" t="s" s="27">
@@ -2458,10 +2452,10 @@
       <c r="F18" s="29">
         <v>1030</v>
       </c>
-      <c r="G18" t="s" s="36">
+      <c r="G18" t="s" s="34">
         <v>45</v>
       </c>
-      <c r="H18" s="35">
+      <c r="H18" s="7">
         <v>124</v>
       </c>
       <c r="I18" s="7"/>
@@ -2469,7 +2463,7 @@
       <c r="K18" s="7"/>
     </row>
     <row r="19" ht="16" customHeight="1">
-      <c r="A19" t="s" s="36">
+      <c r="A19" t="s" s="34">
         <v>41</v>
       </c>
       <c r="B19" t="s" s="27">
@@ -2490,7 +2484,7 @@
       <c r="G19" t="s" s="27">
         <v>46</v>
       </c>
-      <c r="H19" s="35">
+      <c r="H19" s="7">
         <v>700</v>
       </c>
       <c r="I19" s="7"/>
@@ -2498,7 +2492,7 @@
       <c r="K19" s="7"/>
     </row>
     <row r="20" ht="16" customHeight="1">
-      <c r="A20" t="s" s="36">
+      <c r="A20" t="s" s="34">
         <v>41</v>
       </c>
       <c r="B20" t="s" s="27">
@@ -2519,7 +2513,7 @@
       <c r="G20" t="s" s="27">
         <v>47</v>
       </c>
-      <c r="H20" s="35">
+      <c r="H20" s="7">
         <v>0.039</v>
       </c>
       <c r="I20" s="7"/>
@@ -2527,7 +2521,7 @@
       <c r="K20" s="7"/>
     </row>
     <row r="21" ht="16" customHeight="1">
-      <c r="A21" t="s" s="36">
+      <c r="A21" t="s" s="34">
         <v>41</v>
       </c>
       <c r="B21" t="s" s="27">
@@ -2545,10 +2539,10 @@
       <c r="F21" s="29">
         <v>1030</v>
       </c>
-      <c r="G21" t="s" s="36">
+      <c r="G21" t="s" s="34">
         <v>48</v>
       </c>
-      <c r="H21" s="37">
+      <c r="H21" s="35">
         <v>48</v>
       </c>
       <c r="I21" s="7"/>
@@ -2556,7 +2550,7 @@
       <c r="K21" s="7"/>
     </row>
     <row r="22" ht="16" customHeight="1">
-      <c r="A22" t="s" s="36">
+      <c r="A22" t="s" s="34">
         <v>41</v>
       </c>
       <c r="B22" t="s" s="27">
@@ -2574,10 +2568,10 @@
       <c r="F22" s="29">
         <v>1030</v>
       </c>
-      <c r="G22" t="s" s="36">
+      <c r="G22" t="s" s="34">
         <v>49</v>
       </c>
-      <c r="H22" s="37">
+      <c r="H22" s="35">
         <v>3.308e-06</v>
       </c>
       <c r="I22" s="7"/>
@@ -2585,7 +2579,7 @@
       <c r="K22" s="7"/>
     </row>
     <row r="23" ht="16" customHeight="1">
-      <c r="A23" t="s" s="36">
+      <c r="A23" t="s" s="34">
         <v>41</v>
       </c>
       <c r="B23" t="s" s="27">
@@ -2603,10 +2597,10 @@
       <c r="F23" s="29">
         <v>1030</v>
       </c>
-      <c r="G23" t="s" s="36">
+      <c r="G23" t="s" s="34">
         <v>50</v>
       </c>
-      <c r="H23" s="37">
+      <c r="H23" s="35">
         <v>48</v>
       </c>
       <c r="I23" s="7"/>
@@ -2614,7 +2608,7 @@
       <c r="K23" s="7"/>
     </row>
     <row r="24" ht="16" customHeight="1">
-      <c r="A24" t="s" s="36">
+      <c r="A24" t="s" s="34">
         <v>41</v>
       </c>
       <c r="B24" t="s" s="27">
@@ -2632,10 +2626,10 @@
       <c r="F24" s="29">
         <v>1030</v>
       </c>
-      <c r="G24" t="s" s="36">
+      <c r="G24" t="s" s="34">
         <v>51</v>
       </c>
-      <c r="H24" s="37">
+      <c r="H24" s="35">
         <v>0.0699</v>
       </c>
       <c r="I24" s="7"/>
@@ -2643,7 +2637,7 @@
       <c r="K24" s="7"/>
     </row>
     <row r="25" ht="16" customHeight="1">
-      <c r="A25" t="s" s="36">
+      <c r="A25" t="s" s="34">
         <v>41</v>
       </c>
       <c r="B25" t="s" s="27">
@@ -2661,10 +2655,10 @@
       <c r="F25" s="29">
         <v>1030</v>
       </c>
-      <c r="G25" t="s" s="36">
+      <c r="G25" t="s" s="34">
         <v>52</v>
       </c>
-      <c r="H25" s="37">
+      <c r="H25" s="35">
         <v>48</v>
       </c>
       <c r="I25" s="7"/>
@@ -2672,7 +2666,7 @@
       <c r="K25" s="7"/>
     </row>
     <row r="26" ht="16" customHeight="1">
-      <c r="A26" t="s" s="36">
+      <c r="A26" t="s" s="34">
         <v>41</v>
       </c>
       <c r="B26" t="s" s="27">
@@ -2690,10 +2684,10 @@
       <c r="F26" s="29">
         <v>1030</v>
       </c>
-      <c r="G26" t="s" s="36">
+      <c r="G26" t="s" s="34">
         <v>53</v>
       </c>
-      <c r="H26" s="37">
+      <c r="H26" s="35">
         <v>0.0121</v>
       </c>
       <c r="I26" s="7"/>
@@ -2701,20 +2695,20 @@
       <c r="K26" s="7"/>
     </row>
     <row r="27" ht="16" customHeight="1">
-      <c r="A27" s="37"/>
-      <c r="B27" s="37"/>
+      <c r="A27" s="35"/>
+      <c r="B27" s="35"/>
       <c r="C27" s="29"/>
       <c r="D27" s="29"/>
       <c r="E27" s="29"/>
       <c r="F27" s="29"/>
-      <c r="G27" s="37"/>
-      <c r="H27" s="35"/>
+      <c r="G27" s="35"/>
+      <c r="H27" s="7"/>
       <c r="I27" s="7"/>
       <c r="J27" s="7"/>
       <c r="K27" s="7"/>
     </row>
     <row r="28" ht="16" customHeight="1">
-      <c r="A28" t="s" s="36">
+      <c r="A28" t="s" s="34">
         <v>54</v>
       </c>
       <c r="B28" t="s" s="27">
@@ -2732,10 +2726,10 @@
       <c r="F28" s="29">
         <v>20438</v>
       </c>
-      <c r="G28" t="s" s="36">
+      <c r="G28" t="s" s="34">
         <v>56</v>
       </c>
-      <c r="H28" s="37">
+      <c r="H28" s="35">
         <v>1.1</v>
       </c>
       <c r="I28" t="s" s="27">
@@ -2745,7 +2739,7 @@
       <c r="K28" s="7"/>
     </row>
     <row r="29" ht="16" customHeight="1">
-      <c r="A29" t="s" s="36">
+      <c r="A29" t="s" s="34">
         <v>54</v>
       </c>
       <c r="B29" t="s" s="27">
@@ -2763,10 +2757,10 @@
       <c r="F29" s="29">
         <v>20438</v>
       </c>
-      <c r="G29" t="s" s="36">
+      <c r="G29" t="s" s="34">
         <v>58</v>
       </c>
-      <c r="H29" s="40">
+      <c r="H29" s="38">
         <v>1.03e-17</v>
       </c>
       <c r="I29" t="s" s="27">
@@ -2776,20 +2770,20 @@
       <c r="K29" s="7"/>
     </row>
     <row r="30" ht="16" customHeight="1">
-      <c r="A30" s="37"/>
-      <c r="B30" s="37"/>
+      <c r="A30" s="35"/>
+      <c r="B30" s="35"/>
       <c r="C30" s="7"/>
       <c r="D30" s="29"/>
       <c r="E30" s="29"/>
       <c r="F30" s="19"/>
-      <c r="G30" s="35"/>
-      <c r="H30" s="35"/>
+      <c r="G30" s="7"/>
+      <c r="H30" s="7"/>
       <c r="I30" s="7"/>
       <c r="J30" s="7"/>
       <c r="K30" s="7"/>
     </row>
     <row r="31" ht="16" customHeight="1">
-      <c r="A31" t="s" s="36">
+      <c r="A31" t="s" s="34">
         <v>60</v>
       </c>
       <c r="B31" t="s" s="27">
@@ -2804,13 +2798,13 @@
       <c r="E31" t="s" s="27">
         <v>61</v>
       </c>
-      <c r="F31" s="39">
+      <c r="F31" s="37">
         <v>100014</v>
       </c>
-      <c r="G31" t="s" s="36">
+      <c r="G31" t="s" s="34">
         <v>29</v>
       </c>
-      <c r="H31" s="35">
+      <c r="H31" s="7">
         <v>46.851277</v>
       </c>
       <c r="I31" s="7"/>
@@ -2818,7 +2812,7 @@
       <c r="K31" s="7"/>
     </row>
     <row r="32" ht="16" customHeight="1">
-      <c r="A32" t="s" s="36">
+      <c r="A32" t="s" s="34">
         <v>60</v>
       </c>
       <c r="B32" t="s" s="27">
@@ -2833,13 +2827,13 @@
       <c r="E32" t="s" s="27">
         <v>61</v>
       </c>
-      <c r="F32" s="39">
+      <c r="F32" s="37">
         <v>100014</v>
       </c>
-      <c r="G32" t="s" s="36">
+      <c r="G32" t="s" s="34">
         <v>30</v>
       </c>
-      <c r="H32" s="35">
+      <c r="H32" s="7">
         <v>-124.982104</v>
       </c>
       <c r="I32" s="7"/>
@@ -2847,20 +2841,20 @@
       <c r="K32" s="7"/>
     </row>
     <row r="33" ht="16" customHeight="1">
-      <c r="A33" s="37"/>
-      <c r="B33" s="37"/>
+      <c r="A33" s="35"/>
+      <c r="B33" s="35"/>
       <c r="C33" s="29"/>
       <c r="D33" s="29"/>
       <c r="E33" s="29"/>
-      <c r="F33" s="39"/>
-      <c r="G33" s="37"/>
-      <c r="H33" s="37"/>
+      <c r="F33" s="37"/>
+      <c r="G33" s="35"/>
+      <c r="H33" s="35"/>
       <c r="I33" s="7"/>
       <c r="J33" s="7"/>
       <c r="K33" s="7"/>
     </row>
     <row r="34" ht="16" customHeight="1">
-      <c r="A34" t="s" s="36">
+      <c r="A34" t="s" s="34">
         <v>62</v>
       </c>
       <c r="B34" t="s" s="27">
@@ -2881,7 +2875,7 @@
       <c r="G34" t="s" s="27">
         <v>24</v>
       </c>
-      <c r="H34" s="35"/>
+      <c r="H34" s="7"/>
       <c r="I34" t="s" s="27">
         <v>65</v>
       </c>
@@ -2894,10 +2888,10 @@
       <c r="C35" s="7"/>
       <c r="D35" s="7"/>
       <c r="E35" s="7"/>
-      <c r="F35" s="35"/>
-      <c r="G35" s="35"/>
-      <c r="H35" s="35"/>
-      <c r="I35" s="35"/>
+      <c r="F35" s="7"/>
+      <c r="G35" s="7"/>
+      <c r="H35" s="7"/>
+      <c r="I35" s="7"/>
       <c r="J35" s="7"/>
       <c r="K35" s="7"/>
     </row>
